--- a/data/history.xlsx
+++ b/data/history.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29725"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/33b0c2f8df82c795/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\omari\Desktop\jordan-lottery\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9CB80DD9-BCEB-A841-8C82-314AD33E6483}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{441C93AB-6636-4453-BC28-AB5ED2919B87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="72" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="نتائج لوتري الأردن" sheetId="1" r:id="rId1"/>
@@ -435,26 +435,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H253"/>
+  <dimension ref="A1:H255"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A241" workbookViewId="0">
-      <selection activeCell="H253" sqref="H253"/>
+      <selection activeCell="L251" sqref="L251"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="18" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.46875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="26.23046875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="16.27734375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14.125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="12.64453125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="13.31640625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="13.046875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="14.9296875" style="3" customWidth="1"/>
-    <col min="9" max="16384" width="8.875" style="3"/>
+    <col min="1" max="1" width="15.44140625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="26.21875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="16.21875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.109375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="13" style="3" customWidth="1"/>
+    <col min="8" max="8" width="14.88671875" style="3" customWidth="1"/>
+    <col min="9" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -480,7 +480,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -506,7 +506,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -532,7 +532,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -558,7 +558,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -584,7 +584,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -610,7 +610,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -636,7 +636,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -662,7 +662,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -688,7 +688,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -714,7 +714,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -740,7 +740,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -766,7 +766,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -792,7 +792,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -818,7 +818,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -844,7 +844,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -870,7 +870,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -896,7 +896,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -922,7 +922,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -948,7 +948,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -974,7 +974,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -1000,7 +1000,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -1026,7 +1026,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -1052,7 +1052,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>23</v>
       </c>
@@ -1078,7 +1078,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>24</v>
       </c>
@@ -1104,7 +1104,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -1130,7 +1130,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <v>26</v>
       </c>
@@ -1156,7 +1156,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <v>27</v>
       </c>
@@ -1182,7 +1182,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>28</v>
       </c>
@@ -1208,7 +1208,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
         <v>29</v>
       </c>
@@ -1234,7 +1234,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
         <v>30</v>
       </c>
@@ -1260,7 +1260,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
         <v>31</v>
       </c>
@@ -1286,7 +1286,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
         <v>32</v>
       </c>
@@ -1312,7 +1312,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
         <v>33</v>
       </c>
@@ -1338,7 +1338,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="3">
         <v>34</v>
       </c>
@@ -1364,7 +1364,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="3">
         <v>35</v>
       </c>
@@ -1390,7 +1390,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
         <v>36</v>
       </c>
@@ -1416,7 +1416,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
         <v>37</v>
       </c>
@@ -1442,7 +1442,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="3">
         <v>38</v>
       </c>
@@ -1468,7 +1468,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="3">
         <v>39</v>
       </c>
@@ -1494,7 +1494,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="3">
         <v>40</v>
       </c>
@@ -1520,7 +1520,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="3">
         <v>41</v>
       </c>
@@ -1546,7 +1546,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="3">
         <v>42</v>
       </c>
@@ -1572,7 +1572,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="3">
         <v>43</v>
       </c>
@@ -1598,7 +1598,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="3">
         <v>44</v>
       </c>
@@ -1624,7 +1624,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="3">
         <v>45</v>
       </c>
@@ -1650,7 +1650,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="3">
         <v>46</v>
       </c>
@@ -1676,7 +1676,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="3">
         <v>47</v>
       </c>
@@ -1702,7 +1702,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="3">
         <v>48</v>
       </c>
@@ -1728,7 +1728,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="3">
         <v>49</v>
       </c>
@@ -1754,7 +1754,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="3">
         <v>50</v>
       </c>
@@ -1780,7 +1780,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="3">
         <v>51</v>
       </c>
@@ -1806,7 +1806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="3">
         <v>52</v>
       </c>
@@ -1832,7 +1832,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="3">
         <v>53</v>
       </c>
@@ -1858,7 +1858,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="3">
         <v>54</v>
       </c>
@@ -1884,7 +1884,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="3">
         <v>55</v>
       </c>
@@ -1910,7 +1910,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="3">
         <v>56</v>
       </c>
@@ -1936,7 +1936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="3">
         <v>57</v>
       </c>
@@ -1962,7 +1962,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="3">
         <v>58</v>
       </c>
@@ -1988,7 +1988,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" s="3">
         <v>59</v>
       </c>
@@ -2014,7 +2014,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" s="3">
         <v>60</v>
       </c>
@@ -2040,7 +2040,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" s="3">
         <v>61</v>
       </c>
@@ -2066,7 +2066,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" s="3">
         <v>62</v>
       </c>
@@ -2092,7 +2092,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" s="3">
         <v>63</v>
       </c>
@@ -2118,7 +2118,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" s="3">
         <v>64</v>
       </c>
@@ -2144,7 +2144,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" s="3">
         <v>65</v>
       </c>
@@ -2170,7 +2170,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" s="3">
         <v>66</v>
       </c>
@@ -2196,7 +2196,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" s="3">
         <v>67</v>
       </c>
@@ -2222,7 +2222,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" s="3">
         <v>68</v>
       </c>
@@ -2248,7 +2248,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" s="3">
         <v>69</v>
       </c>
@@ -2274,7 +2274,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" s="3">
         <v>70</v>
       </c>
@@ -2300,7 +2300,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" s="3">
         <v>71</v>
       </c>
@@ -2326,7 +2326,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" s="3">
         <v>72</v>
       </c>
@@ -2352,7 +2352,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" s="3">
         <v>73</v>
       </c>
@@ -2378,7 +2378,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" s="3">
         <v>74</v>
       </c>
@@ -2404,7 +2404,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" s="3">
         <v>75</v>
       </c>
@@ -2430,7 +2430,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" s="3">
         <v>76</v>
       </c>
@@ -2456,7 +2456,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" s="3">
         <v>77</v>
       </c>
@@ -2482,7 +2482,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" s="3">
         <v>78</v>
       </c>
@@ -2508,7 +2508,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" s="3">
         <v>79</v>
       </c>
@@ -2534,7 +2534,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" s="3">
         <v>80</v>
       </c>
@@ -2560,7 +2560,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" s="3">
         <v>81</v>
       </c>
@@ -2586,7 +2586,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" s="3">
         <v>82</v>
       </c>
@@ -2612,7 +2612,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" s="3">
         <v>83</v>
       </c>
@@ -2638,7 +2638,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" s="3">
         <v>84</v>
       </c>
@@ -2664,7 +2664,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" s="3">
         <v>85</v>
       </c>
@@ -2690,7 +2690,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" s="3">
         <v>86</v>
       </c>
@@ -2716,7 +2716,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" s="3">
         <v>87</v>
       </c>
@@ -2742,7 +2742,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" s="3">
         <v>88</v>
       </c>
@@ -2768,7 +2768,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" s="3">
         <v>89</v>
       </c>
@@ -2794,7 +2794,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" s="3">
         <v>90</v>
       </c>
@@ -2820,7 +2820,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" s="3">
         <v>91</v>
       </c>
@@ -2846,7 +2846,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" s="3">
         <v>92</v>
       </c>
@@ -2872,7 +2872,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" s="3">
         <v>93</v>
       </c>
@@ -2898,7 +2898,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" s="3">
         <v>94</v>
       </c>
@@ -2924,7 +2924,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" s="3">
         <v>95</v>
       </c>
@@ -2950,7 +2950,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" s="3">
         <v>96</v>
       </c>
@@ -2976,7 +2976,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" s="3">
         <v>97</v>
       </c>
@@ -3002,7 +3002,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" s="3">
         <v>98</v>
       </c>
@@ -3028,7 +3028,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100" s="3">
         <v>99</v>
       </c>
@@ -3054,7 +3054,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101" s="3">
         <v>100</v>
       </c>
@@ -3080,7 +3080,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102" s="3">
         <v>101</v>
       </c>
@@ -3106,7 +3106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A103" s="3">
         <v>102</v>
       </c>
@@ -3132,7 +3132,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A104" s="3">
         <v>103</v>
       </c>
@@ -3158,7 +3158,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A105" s="3">
         <v>104</v>
       </c>
@@ -3184,7 +3184,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A106" s="3">
         <v>105</v>
       </c>
@@ -3210,7 +3210,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A107" s="3">
         <v>106</v>
       </c>
@@ -3236,7 +3236,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A108" s="3">
         <v>107</v>
       </c>
@@ -3262,7 +3262,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109" s="3">
         <v>108</v>
       </c>
@@ -3288,7 +3288,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110" s="3">
         <v>109</v>
       </c>
@@ -3314,7 +3314,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111" s="3">
         <v>110</v>
       </c>
@@ -3340,7 +3340,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112" s="3">
         <v>111</v>
       </c>
@@ -3366,7 +3366,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113" s="3">
         <v>112</v>
       </c>
@@ -3392,7 +3392,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A114" s="3">
         <v>113</v>
       </c>
@@ -3418,7 +3418,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A115" s="3">
         <v>114</v>
       </c>
@@ -3444,7 +3444,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A116" s="3">
         <v>115</v>
       </c>
@@ -3470,7 +3470,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A117" s="3">
         <v>116</v>
       </c>
@@ -3496,7 +3496,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A118" s="3">
         <v>117</v>
       </c>
@@ -3522,7 +3522,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A119" s="3">
         <v>118</v>
       </c>
@@ -3548,7 +3548,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A120" s="3">
         <v>119</v>
       </c>
@@ -3574,7 +3574,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A121" s="3">
         <v>120</v>
       </c>
@@ -3600,7 +3600,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A122" s="3">
         <v>121</v>
       </c>
@@ -3626,7 +3626,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A123" s="3">
         <v>122</v>
       </c>
@@ -3652,7 +3652,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A124" s="3">
         <v>123</v>
       </c>
@@ -3678,7 +3678,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A125" s="3">
         <v>124</v>
       </c>
@@ -3704,7 +3704,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A126" s="3">
         <v>125</v>
       </c>
@@ -3730,7 +3730,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A127" s="3">
         <v>126</v>
       </c>
@@ -3756,7 +3756,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A128" s="3">
         <v>127</v>
       </c>
@@ -3782,7 +3782,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A129" s="3">
         <v>128</v>
       </c>
@@ -3808,7 +3808,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A130" s="3">
         <v>129</v>
       </c>
@@ -3834,7 +3834,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A131" s="3">
         <v>130</v>
       </c>
@@ -3860,7 +3860,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A132" s="3">
         <v>131</v>
       </c>
@@ -3886,7 +3886,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A133" s="3">
         <v>132</v>
       </c>
@@ -3912,7 +3912,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A134" s="3">
         <v>133</v>
       </c>
@@ -3938,7 +3938,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A135" s="3">
         <v>134</v>
       </c>
@@ -3964,7 +3964,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A136" s="3">
         <v>135</v>
       </c>
@@ -3990,7 +3990,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A137" s="3">
         <v>136</v>
       </c>
@@ -4016,7 +4016,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A138" s="3">
         <v>137</v>
       </c>
@@ -4042,7 +4042,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A139" s="3">
         <v>138</v>
       </c>
@@ -4068,7 +4068,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A140" s="3">
         <v>139</v>
       </c>
@@ -4094,7 +4094,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A141" s="3">
         <v>140</v>
       </c>
@@ -4120,7 +4120,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A142" s="3">
         <v>141</v>
       </c>
@@ -4146,7 +4146,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A143" s="3">
         <v>142</v>
       </c>
@@ -4172,7 +4172,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A144" s="3">
         <v>143</v>
       </c>
@@ -4198,7 +4198,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A145" s="3">
         <v>144</v>
       </c>
@@ -4224,7 +4224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A146" s="3">
         <v>145</v>
       </c>
@@ -4250,7 +4250,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A147" s="3">
         <v>146</v>
       </c>
@@ -4276,7 +4276,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A148" s="3">
         <v>147</v>
       </c>
@@ -4302,7 +4302,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A149" s="3">
         <v>148</v>
       </c>
@@ -4328,7 +4328,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A150" s="3">
         <v>149</v>
       </c>
@@ -4354,7 +4354,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A151" s="3">
         <v>150</v>
       </c>
@@ -4380,7 +4380,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A152" s="3">
         <v>151</v>
       </c>
@@ -4406,7 +4406,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A153" s="3">
         <v>152</v>
       </c>
@@ -4432,7 +4432,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A154" s="3">
         <v>153</v>
       </c>
@@ -4458,7 +4458,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A155" s="3">
         <v>154</v>
       </c>
@@ -4484,7 +4484,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A156" s="3">
         <v>155</v>
       </c>
@@ -4510,7 +4510,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A157" s="3">
         <v>156</v>
       </c>
@@ -4536,7 +4536,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A158" s="3">
         <v>157</v>
       </c>
@@ -4562,7 +4562,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A159" s="3">
         <v>158</v>
       </c>
@@ -4588,7 +4588,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A160" s="3">
         <v>159</v>
       </c>
@@ -4614,7 +4614,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A161" s="3">
         <v>160</v>
       </c>
@@ -4640,7 +4640,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A162" s="3">
         <v>161</v>
       </c>
@@ -4666,7 +4666,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A163" s="3">
         <v>162</v>
       </c>
@@ -4692,7 +4692,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A164" s="3">
         <v>163</v>
       </c>
@@ -4718,7 +4718,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A165" s="3">
         <v>164</v>
       </c>
@@ -4744,7 +4744,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A166" s="3">
         <v>165</v>
       </c>
@@ -4770,7 +4770,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A167" s="3">
         <v>166</v>
       </c>
@@ -4796,7 +4796,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A168" s="3">
         <v>167</v>
       </c>
@@ -4822,7 +4822,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A169" s="3">
         <v>168</v>
       </c>
@@ -4848,7 +4848,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A170" s="3">
         <v>169</v>
       </c>
@@ -4874,7 +4874,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A171" s="3">
         <v>170</v>
       </c>
@@ -4900,7 +4900,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A172" s="3">
         <v>171</v>
       </c>
@@ -4926,7 +4926,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A173" s="3">
         <v>172</v>
       </c>
@@ -4952,7 +4952,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A174" s="3">
         <v>173</v>
       </c>
@@ -4978,7 +4978,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A175" s="3">
         <v>174</v>
       </c>
@@ -5004,7 +5004,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A176" s="3">
         <v>175</v>
       </c>
@@ -5030,7 +5030,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A177" s="3">
         <v>176</v>
       </c>
@@ -5056,7 +5056,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A178" s="3">
         <v>177</v>
       </c>
@@ -5082,7 +5082,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A179" s="3">
         <v>178</v>
       </c>
@@ -5108,7 +5108,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A180" s="3">
         <v>179</v>
       </c>
@@ -5134,7 +5134,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A181" s="3">
         <v>180</v>
       </c>
@@ -5160,7 +5160,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A182" s="3">
         <v>181</v>
       </c>
@@ -5186,7 +5186,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A183" s="3">
         <v>182</v>
       </c>
@@ -5212,7 +5212,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A184" s="3">
         <v>183</v>
       </c>
@@ -5238,7 +5238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A185" s="3">
         <v>184</v>
       </c>
@@ -5264,7 +5264,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A186" s="3">
         <v>185</v>
       </c>
@@ -5290,7 +5290,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A187" s="3">
         <v>186</v>
       </c>
@@ -5316,7 +5316,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A188" s="3">
         <v>187</v>
       </c>
@@ -5342,7 +5342,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A189" s="3">
         <v>188</v>
       </c>
@@ -5368,7 +5368,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A190" s="3">
         <v>189</v>
       </c>
@@ -5394,7 +5394,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A191" s="3">
         <v>190</v>
       </c>
@@ -5420,7 +5420,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A192" s="3">
         <v>191</v>
       </c>
@@ -5446,7 +5446,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A193" s="3">
         <v>192</v>
       </c>
@@ -5472,7 +5472,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A194" s="3">
         <v>193</v>
       </c>
@@ -5498,7 +5498,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A195" s="3">
         <v>194</v>
       </c>
@@ -5524,7 +5524,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A196" s="3">
         <v>195</v>
       </c>
@@ -5550,7 +5550,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A197" s="3">
         <v>196</v>
       </c>
@@ -5576,7 +5576,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A198" s="3">
         <v>197</v>
       </c>
@@ -5602,7 +5602,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A199" s="3">
         <v>198</v>
       </c>
@@ -5628,7 +5628,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A200" s="3">
         <v>199</v>
       </c>
@@ -5654,7 +5654,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A201" s="3">
         <v>200</v>
       </c>
@@ -5680,7 +5680,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A202" s="3">
         <v>201</v>
       </c>
@@ -5706,7 +5706,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A203" s="3">
         <v>202</v>
       </c>
@@ -5732,7 +5732,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A204" s="3">
         <v>203</v>
       </c>
@@ -5758,7 +5758,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A205" s="3">
         <v>204</v>
       </c>
@@ -5784,7 +5784,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A206" s="3">
         <v>205</v>
       </c>
@@ -5810,7 +5810,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A207" s="3">
         <v>206</v>
       </c>
@@ -5836,7 +5836,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A208" s="3">
         <v>207</v>
       </c>
@@ -5862,7 +5862,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A209" s="3">
         <v>208</v>
       </c>
@@ -5888,7 +5888,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A210" s="3">
         <v>209</v>
       </c>
@@ -5914,7 +5914,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A211" s="3">
         <v>210</v>
       </c>
@@ -5940,7 +5940,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A212" s="3">
         <v>211</v>
       </c>
@@ -5966,7 +5966,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A213" s="3">
         <v>212</v>
       </c>
@@ -5992,7 +5992,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A214" s="3">
         <v>213</v>
       </c>
@@ -6018,7 +6018,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A215" s="3">
         <v>214</v>
       </c>
@@ -6044,7 +6044,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A216" s="3">
         <v>215</v>
       </c>
@@ -6070,7 +6070,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A217" s="3">
         <v>216</v>
       </c>
@@ -6096,7 +6096,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A218" s="3">
         <v>217</v>
       </c>
@@ -6122,7 +6122,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A219" s="3">
         <v>218</v>
       </c>
@@ -6148,7 +6148,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A220" s="3">
         <v>219</v>
       </c>
@@ -6174,7 +6174,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A221" s="3">
         <v>220</v>
       </c>
@@ -6200,7 +6200,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A222" s="3">
         <v>221</v>
       </c>
@@ -6226,7 +6226,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A223" s="3">
         <v>222</v>
       </c>
@@ -6252,7 +6252,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A224" s="3">
         <v>223</v>
       </c>
@@ -6278,7 +6278,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A225" s="3">
         <v>224</v>
       </c>
@@ -6304,7 +6304,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A226" s="3">
         <v>225</v>
       </c>
@@ -6330,7 +6330,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A227" s="3">
         <v>226</v>
       </c>
@@ -6356,7 +6356,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A228" s="3">
         <v>227</v>
       </c>
@@ -6382,7 +6382,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A229" s="3">
         <v>228</v>
       </c>
@@ -6408,7 +6408,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A230" s="3">
         <v>229</v>
       </c>
@@ -6434,7 +6434,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A231" s="3">
         <v>230</v>
       </c>
@@ -6460,7 +6460,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A232" s="3">
         <v>231</v>
       </c>
@@ -6486,7 +6486,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A233" s="3">
         <v>232</v>
       </c>
@@ -6512,7 +6512,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A234" s="3">
         <v>233</v>
       </c>
@@ -6538,7 +6538,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A235" s="3">
         <v>234</v>
       </c>
@@ -6564,7 +6564,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A236" s="3">
         <v>235</v>
       </c>
@@ -6590,7 +6590,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A237" s="3">
         <v>236</v>
       </c>
@@ -6616,7 +6616,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A238" s="3">
         <v>237</v>
       </c>
@@ -6642,7 +6642,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A239" s="3">
         <v>238</v>
       </c>
@@ -6668,7 +6668,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A240" s="3">
         <v>239</v>
       </c>
@@ -6694,7 +6694,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A241" s="3">
         <v>240</v>
       </c>
@@ -6720,7 +6720,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A242" s="3">
         <v>241</v>
       </c>
@@ -6746,7 +6746,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A243" s="3">
         <v>242</v>
       </c>
@@ -6772,7 +6772,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A244" s="3">
         <v>243</v>
       </c>
@@ -6798,7 +6798,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A245" s="3">
         <v>244</v>
       </c>
@@ -6824,7 +6824,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A246" s="3">
         <v>245</v>
       </c>
@@ -6850,7 +6850,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A247" s="3">
         <v>246</v>
       </c>
@@ -6876,7 +6876,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A248" s="3">
         <v>247</v>
       </c>
@@ -6902,7 +6902,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A249" s="3">
         <v>248</v>
       </c>
@@ -6928,7 +6928,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A250" s="3">
         <v>249</v>
       </c>
@@ -6954,7 +6954,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A251" s="3">
         <v>250</v>
       </c>
@@ -6980,7 +6980,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A252" s="3">
         <v>251</v>
       </c>
@@ -7006,7 +7006,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A253" s="3">
         <v>252</v>
       </c>
@@ -7030,6 +7030,58 @@
       </c>
       <c r="H253" s="3">
         <v>21</v>
+      </c>
+    </row>
+    <row r="254" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A254" s="3">
+        <v>253</v>
+      </c>
+      <c r="B254" s="4">
+        <v>46068</v>
+      </c>
+      <c r="C254" s="1">
+        <v>18</v>
+      </c>
+      <c r="D254" s="3">
+        <v>10</v>
+      </c>
+      <c r="E254" s="3">
+        <v>22</v>
+      </c>
+      <c r="F254" s="3">
+        <v>11</v>
+      </c>
+      <c r="G254" s="3">
+        <v>8</v>
+      </c>
+      <c r="H254" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="255" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A255" s="3">
+        <v>254</v>
+      </c>
+      <c r="B255" s="4">
+        <v>46071</v>
+      </c>
+      <c r="C255" s="1">
+        <v>20</v>
+      </c>
+      <c r="D255" s="3">
+        <v>7</v>
+      </c>
+      <c r="E255" s="3">
+        <v>15</v>
+      </c>
+      <c r="F255" s="3">
+        <v>21</v>
+      </c>
+      <c r="G255" s="3">
+        <v>13</v>
+      </c>
+      <c r="H255" s="3">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
